--- a/output/17stycznia/2021/sheets/year_2021.xlsx
+++ b/output/17stycznia/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>30.66129032258064</v>
+        <v>42.59788722729365</v>
       </c>
       <c r="C2" t="n">
-        <v>31.18387096774194</v>
+        <v>38.91191256956743</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35.975</v>
+        <v>44.09263170057177</v>
       </c>
       <c r="C3" t="n">
-        <v>21.98928571428572</v>
+        <v>40.34974705838231</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.77096774193548</v>
+        <v>43.34282818119231</v>
       </c>
       <c r="C4" t="n">
-        <v>31.06451612903226</v>
+        <v>40.55975766462464</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>35.61000000000001</v>
+        <v>42.86319742782641</v>
       </c>
       <c r="C5" t="n">
-        <v>35.24</v>
+        <v>41.4378743021276</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36.29354838709678</v>
+        <v>43.13781814439857</v>
       </c>
       <c r="C6" t="n">
-        <v>35.49677419354839</v>
+        <v>42.4376710145393</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.77</v>
+        <v>41.32346864225102</v>
       </c>
       <c r="C7" t="n">
-        <v>36.06333333333334</v>
+        <v>42.72157506491138</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.89354838709679</v>
+        <v>43.08561605158939</v>
       </c>
       <c r="C8" t="n">
-        <v>39.09677419354838</v>
+        <v>45.03109144707669</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>42.09354838709677</v>
+        <v>45.1702494984843</v>
       </c>
       <c r="C9" t="n">
-        <v>45.55806451612903</v>
+        <v>46.95977796883263</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>43.14333333333333</v>
+        <v>45.83714415307468</v>
       </c>
       <c r="C10" t="n">
-        <v>41.65</v>
+        <v>47.7558448647448</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45.16129032258065</v>
+        <v>46.75727349554653</v>
       </c>
       <c r="C11" t="n">
-        <v>44.91935483870967</v>
+        <v>46.36672813519635</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.59333333333334</v>
+        <v>46.32106508234045</v>
       </c>
       <c r="C12" t="n">
-        <v>40.96666666666667</v>
+        <v>45.10427322754736</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>36.66129032258064</v>
+        <v>45.10714013577939</v>
       </c>
       <c r="C13" t="n">
-        <v>39.05806451612903</v>
+        <v>44.56731500116378</v>
       </c>
     </row>
   </sheetData>
